--- a/src/SFA/wwwroot/resources/users/638060489420022103.xlsx
+++ b/src/SFA/wwwroot/resources/users/638060489420022103.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEANR\OneDrive\Desktop\SFADocs\Imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEANR\OneDrive\Documents\GitHub\gmdeputation\src\SFA\wwwroot\resources\users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2DC1DA-9567-4DE8-BEE0-1D7B706C0C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2FB254-C9E1-4979-BA96-2271F1DAA4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="3210" windowWidth="22785" windowHeight="11385" tabRatio="604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33030" yWindow="2955" windowWidth="22785" windowHeight="11385" tabRatio="604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -63,18 +63,6 @@
     <t>Work Phone</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>TestMiddle1</t>
-  </si>
-  <si>
-    <t>TestLast1</t>
-  </si>
-  <si>
-    <t>test1@gmail.com</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -91,6 +79,54 @@
   </si>
   <si>
     <t>Land Line Phone</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>TestMiddle2</t>
+  </si>
+  <si>
+    <t>TestMiddle3</t>
+  </si>
+  <si>
+    <t>TestLast2</t>
+  </si>
+  <si>
+    <t>TestLast3</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>test4@gmail.com</t>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+  </si>
+  <si>
+    <t>TestMiddle4</t>
+  </si>
+  <si>
+    <t>TestLast4</t>
+  </si>
+  <si>
+    <t>11856 Lake Lucaya Drive Riverview Fl 33579</t>
+  </si>
+  <si>
+    <t>11857 Lake Lucaya Drive Riverview Fl 33579</t>
+  </si>
+  <si>
+    <t>555-555-5556</t>
+  </si>
+  <si>
+    <t>555-555-5557</t>
   </si>
 </sst>
 </file>
@@ -492,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +589,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -561,22 +597,22 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
       </c>
       <c r="G2">
         <v>33579</v>
@@ -585,31 +621,121 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>11</v>
       </c>
       <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>33579</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>33579</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F0683050-1CBF-4B24-B79E-E78792E9D594}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{1099EDE3-0B0C-41D7-93F4-A01509BAB1F7}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{7FB9C034-FD73-4A3D-A633-91E7DD2CFD27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
